--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2722.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2722.xlsx
@@ -354,7 +354,7 @@
         <v>2.401094863640166</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.36197755512854</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2722.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2722.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.165680701818414</v>
+        <v>0.9370161890983582</v>
       </c>
       <c r="B1">
-        <v>2.401094863640166</v>
+        <v>1.5932697057724</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.19239068031311</v>
       </c>
       <c r="D1">
-        <v>2.36197755512854</v>
+        <v>3.08130407333374</v>
       </c>
       <c r="E1">
-        <v>1.214457225238969</v>
+        <v>0.3484648764133453</v>
       </c>
     </row>
   </sheetData>
